--- a/data/sample_lexicon.xlsx
+++ b/data/sample_lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT\241\CO3085_NLP\assignment1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC93271C-7A18-4E98-9F55-E18BD9161965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB09ECA-B73F-4889-B4D0-C310A5F3F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F7E1E0F-4775-4E77-8385-BD60176DE83F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ART -&gt; the | a | an</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>REL -&gt; who | that | which</t>
+  </si>
+  <si>
+    <t>DET -&gt; this | that | these | those</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D77396-B1EF-4C01-BC77-E6C7B5040A15}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A2:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,79 +438,84 @@
     <col min="1" max="1" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
